--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,20 +710,23 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1595000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1506000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,20 +742,23 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E9" s="3">
         <v>583000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>591000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,20 +774,23 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1012000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>915000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,20 +822,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E12" s="3">
         <v>76000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -878,8 +898,8 @@
       <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>1000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -896,8 +916,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,20 +961,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1158000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1039000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,20 +991,23 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E18" s="3">
         <v>437000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>467000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,8 +1051,8 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1035,20 +1069,23 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E21" s="3">
         <v>480000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>505000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1064,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,20 +1133,23 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E23" s="3">
         <v>437000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>467000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,20 +1165,23 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>72000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,20 +1229,23 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E26" s="3">
         <v>431000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>395000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,20 +1261,23 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E27" s="3">
         <v>431000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>395000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,20 +1325,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-4000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>4000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,8 +1435,8 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1383,20 +1453,23 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E33" s="3">
         <v>427000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>399000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,20 +1517,23 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E35" s="3">
         <v>427000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>399000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,25 +1549,28 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,20 +1616,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E41" s="3">
         <v>730000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>141000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,20 +1678,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1507000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1010000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,20 +1710,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>918000</v>
+      </c>
+      <c r="E44" s="3">
         <v>871000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>924000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,20 +1742,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E45" s="3">
         <v>803000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>902000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,20 +1774,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4329000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3911000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2977000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1806,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1733,20 +1838,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1269000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>986000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1762,20 +1870,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5286000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5314000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5085000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,20 +1966,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E52" s="3">
         <v>414000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>594000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,20 +2030,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11335000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10908000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9642000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,20 +2092,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1812000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>818000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,8 +2122,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2000,11 +2134,11 @@
         <v>39000</v>
       </c>
       <c r="E58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F58" s="3">
         <v>966000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,20 +2154,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1124000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1091000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,20 +2186,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2975000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2875000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,17 +2218,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9259000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9309000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2107,20 +2250,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E62" s="3">
         <v>558000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2045000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,20 +2378,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12953000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12842000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4920000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,17 +2552,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1128000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,20 +2680,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1618000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4722000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,25 +2744,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,20 +2781,23 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E81" s="3">
         <v>427000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>399000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,20 +2829,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
         <v>43000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2859,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,20 +3019,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E89" s="3">
         <v>539000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1504000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,20 +3067,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2876,8 +3097,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,20 +3161,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-249000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,20 +3335,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E100" s="3">
         <v>233000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,20 +3367,23 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>46000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,20 +3399,23 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E102" s="3">
         <v>569000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>91000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>OGN</t>
   </si>
@@ -668,7 +668,10 @@
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -695,17 +698,17 @@
       <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43921</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -727,17 +730,17 @@
       <c r="F8" s="3">
         <v>1506000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>3177000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1780000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -759,17 +762,17 @@
       <c r="F9" s="3">
         <v>591000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="G9" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>535000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>460000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>538000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -791,17 +794,17 @@
       <c r="F10" s="3">
         <v>915000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1078000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1242000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -837,17 +840,17 @@
       <c r="F12" s="3">
         <v>67000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>154000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>51000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -901,17 +904,17 @@
       <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -976,17 +979,17 @@
       <c r="F17" s="3">
         <v>1039000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>2724000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>932000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>824000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>936000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1008,17 +1011,17 @@
       <c r="F18" s="3">
         <v>467000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>453000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>681000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>702000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>844000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1054,17 +1057,17 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1086,17 +1089,17 @@
       <c r="F21" s="3">
         <v>505000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>503000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>721000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>877000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1150,17 +1153,17 @@
       <c r="F23" s="3">
         <v>467000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>453000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>681000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>702000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>844000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1182,17 +1185,17 @@
       <c r="F24" s="3">
         <v>72000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>173000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>121000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>116000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>110000</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1246,17 +1249,17 @@
       <c r="F26" s="3">
         <v>395000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>280000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>560000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>586000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>734000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1278,17 +1281,17 @@
       <c r="F27" s="3">
         <v>395000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>280000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>560000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>586000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>734000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1342,17 +1345,17 @@
       <c r="F29" s="3">
         <v>4000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3">
+        <v>88000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-31000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1438,17 +1441,17 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1470,17 +1473,17 @@
       <c r="F33" s="3">
         <v>399000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>368000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>547000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>542000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>703000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1534,17 +1537,17 @@
       <c r="F35" s="3">
         <v>399000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>368000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>547000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>542000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>703000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1571,17 +1574,17 @@
       <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43921</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1628,8 +1631,8 @@
       <c r="E41" s="3">
         <v>730000</v>
       </c>
-      <c r="F41" s="3">
-        <v>141000</v>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1692,8 +1695,8 @@
       <c r="E43" s="3">
         <v>1507000</v>
       </c>
-      <c r="F43" s="3">
-        <v>1010000</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1724,8 +1727,8 @@
       <c r="E44" s="3">
         <v>871000</v>
       </c>
-      <c r="F44" s="3">
-        <v>924000</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1756,8 +1759,8 @@
       <c r="E45" s="3">
         <v>803000</v>
       </c>
-      <c r="F45" s="3">
-        <v>902000</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1788,8 +1791,8 @@
       <c r="E46" s="3">
         <v>3911000</v>
       </c>
-      <c r="F46" s="3">
-        <v>2977000</v>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1852,8 +1855,8 @@
       <c r="E48" s="3">
         <v>1269000</v>
       </c>
-      <c r="F48" s="3">
-        <v>986000</v>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1884,8 +1887,8 @@
       <c r="E49" s="3">
         <v>5314000</v>
       </c>
-      <c r="F49" s="3">
-        <v>5085000</v>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1980,8 +1983,8 @@
       <c r="E52" s="3">
         <v>414000</v>
       </c>
-      <c r="F52" s="3">
-        <v>594000</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2044,8 +2047,8 @@
       <c r="E54" s="3">
         <v>10908000</v>
       </c>
-      <c r="F54" s="3">
-        <v>9642000</v>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2104,8 +2107,8 @@
       <c r="E57" s="3">
         <v>1812000</v>
       </c>
-      <c r="F57" s="3">
-        <v>818000</v>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2139,8 @@
       <c r="E58" s="3">
         <v>39000</v>
       </c>
-      <c r="F58" s="3">
-        <v>966000</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2168,8 +2171,8 @@
       <c r="E59" s="3">
         <v>1124000</v>
       </c>
-      <c r="F59" s="3">
-        <v>1091000</v>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2200,8 +2203,8 @@
       <c r="E60" s="3">
         <v>2975000</v>
       </c>
-      <c r="F60" s="3">
-        <v>2875000</v>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2264,8 +2267,8 @@
       <c r="E62" s="3">
         <v>558000</v>
       </c>
-      <c r="F62" s="3">
-        <v>2045000</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2392,8 +2395,8 @@
       <c r="E66" s="3">
         <v>12842000</v>
       </c>
-      <c r="F66" s="3">
-        <v>4920000</v>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2694,8 +2697,8 @@
       <c r="E76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="F76" s="3">
-        <v>4722000</v>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2766,17 +2769,17 @@
       <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43921</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2798,17 +2801,17 @@
       <c r="F81" s="3">
         <v>399000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>368000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>547000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>542000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>703000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2844,11 +2847,11 @@
       <c r="F83" s="3">
         <v>38000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>40000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3036,11 +3039,11 @@
       <c r="F89" s="3">
         <v>1504000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>430000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>288000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3082,11 +3085,11 @@
       <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-47000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,11 +3181,11 @@
       <c r="F94" s="3">
         <v>-38000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-50000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3352,11 +3355,11 @@
       <c r="F100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>-677000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-303000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3384,11 +3387,11 @@
       <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>54000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2000</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3416,11 +3419,11 @@
       <c r="F102" s="3">
         <v>91000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>-311000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-63000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>OGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1567000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1603000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1595000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1506000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3177000</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1613000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1526000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1780000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>592000</v>
+      </c>
+      <c r="F9" s="3">
         <v>609000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>583000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>591000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1814000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J9" s="3">
         <v>535000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>460000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>538000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="F10" s="3">
         <v>991000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1012000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>915000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1363000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>-787000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1078000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1066000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1242000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>114000</v>
+      </c>
+      <c r="F12" s="3">
         <v>111000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>76000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>67000</v>
       </c>
-      <c r="G12" s="3">
-        <v>154000</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>214000</v>
+      </c>
+      <c r="J12" s="3">
         <v>54000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>51000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>45000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +923,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1000</v>
+        <v>87000</v>
       </c>
       <c r="F14" s="3">
         <v>1000</v>
       </c>
       <c r="G14" s="3">
-        <v>27000</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="3">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1367000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1211000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1158000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1039000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2724000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>1088000</v>
+      </c>
+      <c r="J17" s="3">
         <v>932000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>824000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>936000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>236000</v>
+      </c>
+      <c r="F18" s="3">
         <v>389000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>437000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>467000</v>
       </c>
-      <c r="G18" s="3">
-        <v>453000</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>525000</v>
+      </c>
+      <c r="J18" s="3">
         <v>681000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>702000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>844000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1069,46 +1136,58 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F21" s="3">
         <v>441000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>480000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>505000</v>
       </c>
-      <c r="G21" s="3">
-        <v>503000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>560000</v>
+      </c>
+      <c r="J21" s="3">
         <v>721000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>877000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1218,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>236000</v>
+      </c>
+      <c r="F23" s="3">
         <v>389000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>437000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>467000</v>
       </c>
-      <c r="G23" s="3">
-        <v>453000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>525000</v>
+      </c>
+      <c r="J23" s="3">
         <v>681000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>702000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>844000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F24" s="3">
         <v>66000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>72000</v>
       </c>
-      <c r="G24" s="3">
-        <v>173000</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>149000</v>
+      </c>
+      <c r="J24" s="3">
         <v>121000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>116000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>110000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F26" s="3">
         <v>323000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>431000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>395000</v>
       </c>
-      <c r="G26" s="3">
-        <v>280000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>376000</v>
+      </c>
+      <c r="J26" s="3">
         <v>560000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>586000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>734000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F27" s="3">
         <v>323000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>431000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>395000</v>
       </c>
-      <c r="G27" s="3">
-        <v>280000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>376000</v>
+      </c>
+      <c r="J27" s="3">
         <v>560000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>586000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>734000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1340,31 +1461,37 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-4000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>4000</v>
       </c>
-      <c r="G29" s="3">
-        <v>88000</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J29" s="3">
         <v>-13000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-44000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-31000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1453,46 +1592,58 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F33" s="3">
         <v>323000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>427000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>399000</v>
       </c>
-      <c r="G33" s="3">
-        <v>368000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>456000</v>
+      </c>
+      <c r="J33" s="3">
         <v>547000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>542000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>703000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F35" s="3">
         <v>323000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>427000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>399000</v>
       </c>
-      <c r="G35" s="3">
-        <v>368000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>456000</v>
+      </c>
+      <c r="J35" s="3">
         <v>547000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>542000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>703000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1791,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>737000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1008000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>730000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>141000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1652,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,25 +1863,31 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1498000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1507000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>1010000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1716,25 +1901,31 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>946000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>915000</v>
+      </c>
+      <c r="F44" s="3">
         <v>918000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>871000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>924000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1748,25 +1939,31 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>726000</v>
+      </c>
+      <c r="F45" s="3">
         <v>905000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>803000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>902000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1780,25 +1977,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3719000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3760000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4329000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3911000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>2977000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1812,8 +2015,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,25 +2053,31 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1255000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1269000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>986000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1876,25 +2091,31 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5268000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5254000</v>
+      </c>
+      <c r="F49" s="3">
         <v>5286000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5314000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>5085000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,25 +2205,31 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>610000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>464000</v>
+      </c>
+      <c r="F52" s="3">
         <v>465000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>414000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>594000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,25 +2281,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10597000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10681000</v>
+      </c>
+      <c r="F54" s="3">
         <v>11335000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10908000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>9642000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2068,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,25 +2355,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1673000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1812000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>818000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2128,25 +2389,31 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F58" s="3">
         <v>39000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>39000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>966000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2160,25 +2427,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1206000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1417000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1124000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>1091000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2192,25 +2465,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2306000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2597000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3129000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2975000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>2875000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2224,23 +2503,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9085000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9125000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9259000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9309000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,25 +2541,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>467000</v>
+      </c>
+      <c r="F62" s="3">
         <v>565000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>558000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>2045000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2693,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11847000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12189000</v>
+      </c>
+      <c r="F66" s="3">
         <v>12953000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12842000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>4920000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2416,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2899,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-724000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-998000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1128000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,25 +3051,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1250000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1508000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1618000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>4722000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2718,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F81" s="3">
         <v>323000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>427000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>399000</v>
       </c>
-      <c r="G81" s="3">
-        <v>368000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>456000</v>
+      </c>
+      <c r="J81" s="3">
         <v>547000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>542000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>703000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F83" s="3">
         <v>52000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>43000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>38000</v>
       </c>
-      <c r="G83" s="3">
-        <v>50000</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>136000</v>
+      </c>
+      <c r="J83" s="3">
         <v>40000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F89" s="3">
         <v>368000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>539000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1504000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>430000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>288000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36000</v>
+        <v>-33000</v>
       </c>
       <c r="E91" s="3">
         <v>-59000</v>
       </c>
       <c r="F91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-144000</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-47000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-61000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-249000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-38000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-118000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-50000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,16 +3678,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3826,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>233000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-677000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-303000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>46000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>54000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-271000</v>
+      </c>
+      <c r="F102" s="3">
         <v>278000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>569000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>91000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-311000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-63000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1567000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1603000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1595000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1506000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1613000</v>
       </c>
       <c r="J8" s="3">
         <v>1613000</v>
       </c>
       <c r="K8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="L8" s="3">
         <v>1526000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1780000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>571000</v>
+        <v>579000</v>
       </c>
       <c r="E9" s="3">
+        <v>561000</v>
+      </c>
+      <c r="F9" s="3">
         <v>592000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>609000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>583000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>591000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>535000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>460000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>538000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>996000</v>
+        <v>1006000</v>
       </c>
       <c r="E10" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1011000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>991000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1012000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>915000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-787000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1078000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1066000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1242000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E12" s="3">
         <v>96000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>114000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>111000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>76000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>67000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>214000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>54000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,19 +946,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>106000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>87000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1000</v>
       </c>
       <c r="G14" s="3">
         <v>1000</v>
@@ -950,25 +970,28 @@
         <v>1000</v>
       </c>
       <c r="I14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="3">
         <v>17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1125000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1367000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1211000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1158000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1039000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1088000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>932000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>824000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>936000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E18" s="3">
         <v>442000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>236000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>389000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>437000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>467000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>525000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>681000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>702000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>844000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1142,52 +1176,58 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E21" s="3">
         <v>495000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>298000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>441000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>480000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>505000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>560000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>721000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>877000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E23" s="3">
         <v>442000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>236000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>389000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>437000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>467000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>525000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>681000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>702000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>844000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E24" s="3">
         <v>94000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>66000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>72000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>149000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>121000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>110000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E26" s="3">
         <v>348000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>202000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>323000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>431000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>395000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>376000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>560000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>586000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>734000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E27" s="3">
         <v>348000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>202000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>323000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>431000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>395000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>376000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>560000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>586000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>734000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,31 +1528,34 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-4000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>80000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-13000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-44000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-31000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1598,52 +1668,58 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E33" s="3">
         <v>348000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>202000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>323000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>427000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>399000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>456000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>547000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>542000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>703000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E35" s="3">
         <v>348000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>202000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>323000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>427000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>399000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>456000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>547000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>542000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>703000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>545000</v>
+      </c>
+      <c r="E41" s="3">
         <v>694000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>737000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1008000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>730000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>141000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1490000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1322000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1382000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1498000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1507000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1010000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,29 +2000,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E44" s="3">
         <v>946000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>915000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>918000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>871000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>924000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E45" s="3">
         <v>757000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>726000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>905000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>803000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>902000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3774000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3719000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3760000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4329000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3911000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2977000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000000</v>
+        <v>952000</v>
       </c>
       <c r="E48" s="3">
+        <v>970000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1203000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1255000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1269000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>986000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,29 +2205,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5241000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5268000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5254000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5286000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5314000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5085000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>610000</v>
+        <v>647000</v>
       </c>
       <c r="E52" s="3">
+        <v>640000</v>
+      </c>
+      <c r="F52" s="3">
         <v>464000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>465000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>414000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>594000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10614000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10597000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10681000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11335000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10908000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9642000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1081000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1382000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1673000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1812000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>818000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,17 +2541,17 @@
         <v>9000</v>
       </c>
       <c r="F58" s="3">
-        <v>39000</v>
+        <v>9000</v>
       </c>
       <c r="G58" s="3">
         <v>39000</v>
       </c>
       <c r="H58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I58" s="3">
         <v>966000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1257000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1216000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1206000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1417000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1124000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1091000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2396000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2306000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2597000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3129000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2975000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2875000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,26 +2649,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8884000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9085000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9125000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9259000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9309000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E62" s="3">
         <v>456000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>467000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>565000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>558000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2045000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11751000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11847000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12189000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12953000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12842000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4920000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-724000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-998000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1128000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1137000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1250000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1508000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1618000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4722000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E81" s="3">
         <v>348000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>202000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>323000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>427000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>399000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>456000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>547000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>542000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>703000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,35 +3428,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E83" s="3">
         <v>53000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>136000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,35 +3672,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E89" s="3">
         <v>123000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>47000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>368000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>539000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1504000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>430000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>288000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,35 +3732,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-121000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,35 +3853,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-133000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-249000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-118000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,19 +3913,20 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-71000</v>
+        <v>-72000</v>
       </c>
       <c r="E96" s="3">
         <v>-71000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,35 +4075,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-91000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-187000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>233000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-677000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-303000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,35 +4116,38 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>46000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>54000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3908,35 +4157,38 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-43000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-271000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>278000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>569000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>91000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-311000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-63000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1537000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1585000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1567000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1603000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1595000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1506000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1613000</v>
       </c>
       <c r="K8" s="3">
         <v>1613000</v>
       </c>
       <c r="L8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="M8" s="3">
         <v>1526000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1780000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>551000</v>
+      </c>
+      <c r="E9" s="3">
         <v>579000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>561000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>592000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>609000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>583000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>591000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>535000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>460000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>538000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1006000</v>
+        <v>986000</v>
       </c>
       <c r="E10" s="3">
         <v>1006000</v>
       </c>
       <c r="F10" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="G10" s="3">
         <v>1011000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>991000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1012000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>915000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-787000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1078000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1066000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1242000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E12" s="3">
         <v>106000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>96000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>114000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>111000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>76000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>67000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>214000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>54000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>45000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,22 +966,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>106000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>87000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1000</v>
       </c>
       <c r="H14" s="3">
         <v>1000</v>
@@ -973,25 +993,28 @@
         <v>1000</v>
       </c>
       <c r="J14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="3">
         <v>17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1298000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1125000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1367000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1211000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1158000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1039000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1088000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>932000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>824000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>936000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E18" s="3">
         <v>287000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>442000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>236000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>389000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>437000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>467000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>525000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>681000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>702000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>844000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,55 +1213,61 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E21" s="3">
         <v>337000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>495000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>298000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>441000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>480000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>505000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>560000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>721000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>877000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E23" s="3">
         <v>287000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>442000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>236000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>389000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>437000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>467000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>525000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>681000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>702000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>844000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E24" s="3">
         <v>53000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>94000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>66000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>72000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>149000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>121000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>110000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E26" s="3">
         <v>234000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>348000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>202000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>323000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>431000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>395000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>376000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>560000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>586000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>734000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E27" s="3">
         <v>234000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>348000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>202000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>323000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>431000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>395000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>376000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>560000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>586000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>734000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1531,31 +1592,34 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-4000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>80000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-13000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-44000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-31000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1671,55 +1741,61 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E33" s="3">
         <v>234000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>348000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>202000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>323000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>427000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>399000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>456000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>547000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>542000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>703000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E35" s="3">
         <v>234000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>348000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>202000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>323000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>427000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>399000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>456000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>547000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>542000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>703000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E41" s="3">
         <v>545000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>694000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>737000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1008000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>730000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>141000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,32 +2052,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1490000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1322000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1382000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1498000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1507000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1010000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,32 +2096,35 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>879000</v>
+      </c>
+      <c r="E44" s="3">
         <v>950000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>946000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>915000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>918000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>871000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>924000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,32 +2140,35 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>774000</v>
+      </c>
+      <c r="E45" s="3">
         <v>789000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>757000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>726000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>905000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>803000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>902000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3592000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3774000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3719000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3760000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4329000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3911000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2977000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,32 +2272,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>906000</v>
+      </c>
+      <c r="E48" s="3">
         <v>952000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>970000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1203000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1255000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1269000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>986000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,32 +2316,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5273000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5241000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5268000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5254000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5286000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5314000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5085000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E52" s="3">
         <v>647000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>640000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>464000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>465000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>414000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>594000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10437000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10614000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10597000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10681000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11335000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10908000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9642000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2618,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1130000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1081000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1382000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1673000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1812000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>818000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,13 +2660,16 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="E58" s="3">
         <v>9000</v>
@@ -2544,17 +2678,17 @@
         <v>9000</v>
       </c>
       <c r="G58" s="3">
-        <v>39000</v>
+        <v>9000</v>
       </c>
       <c r="H58" s="3">
         <v>39000</v>
       </c>
       <c r="I58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="J58" s="3">
         <v>966000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,32 +2704,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1292000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1257000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1216000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1206000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1417000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1124000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1091000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2328000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2396000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2306000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2597000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3129000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2975000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2875000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8691000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8884000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9085000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9125000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9259000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9309000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E62" s="3">
         <v>471000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>456000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>467000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>565000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>558000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2045000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11503000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11751000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11847000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12189000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12953000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12842000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4920000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-383000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-551000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-724000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-998000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1128000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1066000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1137000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1250000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1508000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1618000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4722000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E81" s="3">
         <v>234000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>348000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>202000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>323000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>427000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>399000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>456000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>547000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>542000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>703000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,38 +3627,39 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E83" s="3">
         <v>50000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>62000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>136000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,38 +3889,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E89" s="3">
         <v>151000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>123000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>47000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>368000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>539000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1504000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>430000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>288000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,38 +3953,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-121000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,38 +4083,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-83000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-133000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-249000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-118000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,22 +4147,23 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-72000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-71000</v>
       </c>
       <c r="F96" s="3">
         <v>-71000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,38 +4321,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-183000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-91000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-187000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>233000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-677000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-303000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4119,38 +4365,41 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>46000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>54000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4160,38 +4409,41 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-149000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-43000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-271000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>278000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>569000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>91000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-311000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1537000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1585000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1567000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1603000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1595000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1506000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1613000</v>
       </c>
       <c r="L8" s="3">
         <v>1613000</v>
       </c>
       <c r="M8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="N8" s="3">
         <v>1526000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1780000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E9" s="3">
         <v>551000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>579000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>561000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>592000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>609000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>583000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>591000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>535000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>460000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>538000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E10" s="3">
         <v>986000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1006000</v>
       </c>
       <c r="F10" s="3">
         <v>1006000</v>
       </c>
       <c r="G10" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="H10" s="3">
         <v>1011000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>991000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1012000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>915000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-787000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1078000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1066000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1242000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E12" s="3">
         <v>127000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>106000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>96000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>114000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>111000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>76000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>67000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>214000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>54000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>45000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,25 +985,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>21000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>106000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>87000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1000</v>
       </c>
       <c r="I14" s="3">
         <v>1000</v>
@@ -996,25 +1015,28 @@
         <v>1000</v>
       </c>
       <c r="K14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1374000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1255000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1298000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1125000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1367000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1211000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1158000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1039000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1088000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>932000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>824000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>936000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E18" s="3">
         <v>282000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>287000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>442000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>236000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>389000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>437000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>467000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>525000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>681000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>702000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>844000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1216,58 +1249,64 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E21" s="3">
         <v>339000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>337000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>495000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>298000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>441000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>480000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>505000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>560000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>721000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>877000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E23" s="3">
         <v>282000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>287000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>442000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>236000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>389000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>437000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>467000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>525000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>681000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>702000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>844000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>53000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>94000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>66000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>72000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>149000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>121000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>116000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>110000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E26" s="3">
         <v>227000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>234000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>348000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>202000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>323000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>431000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>395000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>376000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>560000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>586000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>734000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E27" s="3">
         <v>227000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>234000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>348000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>202000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>323000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>431000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>395000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>376000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>560000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>586000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>734000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,31 +1655,34 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>80000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-13000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-44000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-31000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1744,58 +1813,64 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E33" s="3">
         <v>227000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>234000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>348000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>202000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>323000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>427000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>399000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>456000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>547000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>542000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>703000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E35" s="3">
         <v>227000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>234000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>348000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>202000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>323000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>427000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>399000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>456000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>547000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>542000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>703000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E41" s="3">
         <v>499000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>545000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>694000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>737000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1008000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>730000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>141000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2144,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1440000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1490000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1322000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1382000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1498000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1507000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1010000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,35 +2191,38 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="E44" s="3">
         <v>879000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>950000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>946000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>915000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>918000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>871000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>924000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,35 +2238,38 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E45" s="3">
         <v>774000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>789000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>757000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>726000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>905000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>803000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>902000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3931000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3592000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3774000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3719000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3760000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4329000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3911000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2977000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,35 +2379,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E48" s="3">
         <v>906000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>952000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>970000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1203000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1255000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1269000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>986000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,35 +2426,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5252000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5273000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5241000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5268000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5254000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5286000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5314000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5085000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2567,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E52" s="3">
         <v>666000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>647000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>640000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>464000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>465000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>414000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>594000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10955000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10437000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10614000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10597000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10681000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11335000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10908000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9642000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2748,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1028000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1130000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1081000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1382000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1673000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1812000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>818000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +2805,7 @@
         <v>8000</v>
       </c>
       <c r="E58" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F58" s="3">
         <v>9000</v>
@@ -2681,17 +2814,17 @@
         <v>9000</v>
       </c>
       <c r="H58" s="3">
-        <v>39000</v>
+        <v>9000</v>
       </c>
       <c r="I58" s="3">
         <v>39000</v>
       </c>
       <c r="J58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K58" s="3">
         <v>966000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,35 +2840,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1292000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1257000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1216000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1206000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1417000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1124000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1091000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2512000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2328000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2396000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2306000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2597000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3129000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2975000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2875000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,32 +2934,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8905000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8691000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8884000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9085000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9125000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9259000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9309000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E62" s="3">
         <v>484000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>471000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>456000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>467000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>565000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>558000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2045000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11847000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11503000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11751000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11847000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12189000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12953000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12842000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4920000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-331000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-383000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-551000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-724000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-998000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1128000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-892000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1066000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1137000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1250000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1508000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1618000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4722000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E81" s="3">
         <v>227000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>234000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>348000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>202000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>323000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>427000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>399000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>456000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>547000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>542000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>703000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,41 +3825,42 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
         <v>57000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>38000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>136000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4105,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E89" s="3">
         <v>317000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>151000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>123000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>47000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>368000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>539000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1504000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>430000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>288000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,41 +4173,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-45000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-121000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,41 +4312,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-213000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-83000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-133000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-249000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-118000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,25 +4380,26 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-74000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-72000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-71000</v>
       </c>
       <c r="G96" s="3">
         <v>-71000</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,41 +4566,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-183000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-91000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-187000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>233000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-677000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-303000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,41 +4613,44 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-73000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-34000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>46000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>54000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4412,41 +4660,44 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-149000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-271000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>278000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>569000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>91000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-311000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>OGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1485000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1537000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1585000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1567000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1603000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1595000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1506000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1613000</v>
       </c>
       <c r="M8" s="3">
         <v>1613000</v>
       </c>
       <c r="N8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="O8" s="3">
         <v>1526000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1780000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E9" s="3">
         <v>594000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>551000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>579000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>561000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>592000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>609000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>583000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>591000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>535000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>460000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>538000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E10" s="3">
         <v>891000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>986000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1006000</v>
       </c>
       <c r="G10" s="3">
         <v>1006000</v>
       </c>
       <c r="H10" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1011000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>991000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1012000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>915000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-787000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1078000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1066000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1242000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E12" s="3">
         <v>142000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>127000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>106000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>96000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>114000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>111000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>76000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>67000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>214000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>54000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>45000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,28 +1005,31 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>17000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>106000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>87000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1000</v>
       </c>
       <c r="J14" s="3">
         <v>1000</v>
@@ -1018,25 +1038,28 @@
         <v>1000</v>
       </c>
       <c r="L14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1374000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1255000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1298000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1125000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1367000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1211000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1158000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1039000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1088000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>932000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>824000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>936000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E18" s="3">
         <v>111000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>282000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>287000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>442000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>236000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>389000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>437000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>467000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>525000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>681000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>702000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>844000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,61 +1286,67 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E21" s="3">
         <v>163000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>339000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>337000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>495000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>298000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>441000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>480000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>505000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>560000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>721000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>877000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E23" s="3">
         <v>111000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>282000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>287000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>442000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>236000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>389000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>437000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>467000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>525000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>681000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>702000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>844000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>53000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>94000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>66000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>72000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>149000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>121000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>116000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>110000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E26" s="3">
         <v>108000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>227000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>234000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>348000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>202000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>323000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>431000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>395000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>376000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>560000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>586000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>734000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E27" s="3">
         <v>108000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>227000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>234000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>348000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>202000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>323000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>431000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>395000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>376000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>560000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>586000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>734000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,13 +1692,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1658,31 +1719,34 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>80000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-13000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-44000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-31000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1816,61 +1886,67 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E33" s="3">
         <v>108000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>227000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>234000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>348000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>202000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>323000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>427000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>399000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>456000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>547000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>542000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>703000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E35" s="3">
         <v>108000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>227000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>234000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>348000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>202000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>323000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>427000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>399000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>456000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>547000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>542000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>703000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E41" s="3">
         <v>706000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>499000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>545000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>694000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>737000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1008000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>730000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>141000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,38 +2237,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1475000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1440000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1490000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1322000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1382000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1498000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1507000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1010000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,38 +2287,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1003000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>879000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>950000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>946000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>915000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>918000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>871000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>924000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E45" s="3">
         <v>747000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>774000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>789000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>757000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>726000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>905000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>803000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>902000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3780000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3931000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3592000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3774000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3719000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3760000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4329000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3911000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2977000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1233000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>906000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>952000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>970000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1203000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1255000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1269000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>986000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5224000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5252000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5273000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5241000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5268000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5254000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5286000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5314000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5085000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E52" s="3">
         <v>539000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>666000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>647000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>640000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>464000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>465000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>414000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>594000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10763000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10955000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10437000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10614000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10597000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10681000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11335000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10908000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9642000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1132000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1028000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1130000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1081000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1382000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1673000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1812000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>818000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,7 +2942,7 @@
         <v>8000</v>
       </c>
       <c r="F58" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="G58" s="3">
         <v>9000</v>
@@ -2817,17 +2951,17 @@
         <v>9000</v>
       </c>
       <c r="I58" s="3">
-        <v>39000</v>
+        <v>9000</v>
       </c>
       <c r="J58" s="3">
         <v>39000</v>
       </c>
       <c r="K58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="L58" s="3">
         <v>966000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1372000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1292000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1257000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1216000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1206000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1417000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1124000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1091000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2346000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2512000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2328000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2396000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2306000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2597000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3129000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2975000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2875000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,35 +3077,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8703000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8905000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8691000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8884000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9085000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9125000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9259000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9309000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E62" s="3">
         <v>430000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>484000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>471000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>456000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>467000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>565000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>558000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2045000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11847000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11503000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11751000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11847000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12189000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12953000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12842000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4920000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-331000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-383000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-551000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-724000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-998000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1128000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-737000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-892000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1066000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1137000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1250000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1508000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1618000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4722000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E81" s="3">
         <v>108000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>227000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>234000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>348000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>202000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>323000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>427000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>399000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>456000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>547000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>542000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>703000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,44 +4024,45 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E83" s="3">
         <v>52000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>52000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>136000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,44 +4322,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E89" s="3">
         <v>267000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>317000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>151000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>123000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>47000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>368000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>539000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1504000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>430000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>288000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,44 +4394,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63000</v>
+        <v>-54000</v>
       </c>
       <c r="E91" s="3">
-        <v>-55000</v>
+        <v>-65000</v>
       </c>
       <c r="F91" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-45000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-59000</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-121000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,44 +4542,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-213000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-83000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-133000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-249000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-118000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4390,19 +4624,19 @@
         <v>-73000</v>
       </c>
       <c r="E96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-74000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-72000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-71000</v>
       </c>
       <c r="H96" s="3">
         <v>-71000</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,44 +4812,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-326000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-82000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-77000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-183000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-91000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-187000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>233000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-677000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-303000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,44 +4862,47 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E101" s="3">
         <v>83000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-73000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-34000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>46000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>54000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4663,44 +4912,47 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-247000</v>
+      </c>
+      <c r="E102" s="3">
         <v>207000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-149000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-271000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>278000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>569000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-311000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>OGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1608000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1538000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1485000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1537000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1585000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1567000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1603000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1595000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1506000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1613000</v>
       </c>
       <c r="N8" s="3">
         <v>1613000</v>
       </c>
       <c r="O8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="P8" s="3">
         <v>1526000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1780000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E9" s="3">
         <v>580000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>594000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>551000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>579000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>561000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>592000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>609000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>583000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>591000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2400000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>535000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>460000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>538000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>968000</v>
+      </c>
+      <c r="E10" s="3">
         <v>958000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>891000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>986000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1006000</v>
       </c>
       <c r="H10" s="3">
         <v>1006000</v>
       </c>
       <c r="I10" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1011000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>991000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1012000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>915000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-787000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1078000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1066000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1242000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E12" s="3">
         <v>129000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>142000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>127000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>106000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>96000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>114000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>111000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>76000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>67000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>214000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>54000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>45000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>106000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>87000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1000</v>
       </c>
       <c r="K14" s="3">
         <v>1000</v>
@@ -1041,25 +1061,28 @@
         <v>1000</v>
       </c>
       <c r="M14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1354000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1303000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1374000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1255000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1298000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1125000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1367000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1211000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1158000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1039000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1088000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>932000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>824000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>936000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E18" s="3">
         <v>235000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>111000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>282000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>287000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>442000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>236000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>389000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>437000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>467000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>525000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>681000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>702000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>844000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,64 +1323,70 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E21" s="3">
         <v>292000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>163000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>339000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>337000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>495000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>298000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>441000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>480000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>505000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>560000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>721000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>877000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E23" s="3">
         <v>235000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>111000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>282000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>287000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>442000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>236000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>389000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>437000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>467000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>525000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>681000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>702000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>844000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>58000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>94000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>66000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>72000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>149000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>121000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>116000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>110000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E26" s="3">
         <v>177000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>108000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>227000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>234000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>348000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>202000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>323000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>431000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>395000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>376000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>560000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>586000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>734000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E27" s="3">
         <v>177000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>108000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>227000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>234000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>348000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>202000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>323000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>431000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>395000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>376000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>560000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>586000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>734000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1722,31 +1783,34 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>4000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>80000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-13000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-44000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1889,64 +1959,70 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E33" s="3">
         <v>177000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>108000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>227000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>234000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>348000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>202000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>323000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>427000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>399000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>456000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>547000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>542000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>703000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E35" s="3">
         <v>177000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>108000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>227000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>234000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>348000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>202000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>323000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>427000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>399000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>456000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>547000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>542000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>703000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E41" s="3">
         <v>459000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>706000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>499000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>545000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>694000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>737000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1008000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>730000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>141000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1445000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1475000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1440000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1490000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1322000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1382000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1498000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1507000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1010000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,41 +2383,44 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1121000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1003000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>879000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>950000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>946000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>915000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>918000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>871000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>924000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>761000</v>
+      </c>
+      <c r="E45" s="3">
         <v>755000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>747000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>774000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>789000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>757000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>726000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>905000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>803000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>902000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3780000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3931000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3592000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3774000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3719000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3760000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4329000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3911000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2977000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1055000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1233000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>906000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>952000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>970000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1203000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1255000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1269000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>986000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5195000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5224000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5252000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5273000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5241000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5268000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5254000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5286000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5314000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5085000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>716000</v>
+      </c>
+      <c r="E52" s="3">
         <v>704000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>539000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>666000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>647000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>640000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>464000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>465000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>414000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>594000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10979000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10763000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10955000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10437000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10614000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10597000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10681000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11335000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10908000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9642000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E57" s="3">
         <v>996000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1132000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1028000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1130000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1081000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1382000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1673000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1812000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>818000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2945,7 +3079,7 @@
         <v>8000</v>
       </c>
       <c r="G58" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="H58" s="3">
         <v>9000</v>
@@ -2954,17 +3088,17 @@
         <v>9000</v>
       </c>
       <c r="J58" s="3">
-        <v>39000</v>
+        <v>9000</v>
       </c>
       <c r="K58" s="3">
         <v>39000</v>
       </c>
       <c r="L58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="M58" s="3">
         <v>966000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1342000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1372000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1292000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1257000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1216000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1206000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1417000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1124000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1091000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2346000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2512000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2328000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2396000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2306000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2597000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3129000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2975000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2875000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8722000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8703000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8905000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8691000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8884000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9085000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9125000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9259000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9309000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E62" s="3">
         <v>451000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>430000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>484000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>471000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>456000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>467000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>565000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>558000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2045000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11534000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11847000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11503000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11751000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11847000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12189000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12953000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12842000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4920000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-206000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-331000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-383000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-551000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-724000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-998000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1128000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-555000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-737000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-892000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1066000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1137000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1250000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1508000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1618000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4722000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E81" s="3">
         <v>177000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>108000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>227000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>234000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>348000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>202000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>323000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>427000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>399000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>456000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>547000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>542000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>703000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,47 +4223,48 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E83" s="3">
         <v>57000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>52000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>57000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>136000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,47 +4539,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E89" s="3">
         <v>114000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>267000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>317000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>151000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>123000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>47000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>368000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>539000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1504000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>430000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>288000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,47 +4615,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-160000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-138000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-121000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,47 +4772,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-213000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-63000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-133000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-249000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-118000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,31 +4848,32 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-73000</v>
+        <v>-74000</v>
       </c>
       <c r="E96" s="3">
         <v>-73000</v>
       </c>
       <c r="F96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-74000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-72000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-71000</v>
       </c>
       <c r="I96" s="3">
         <v>-71000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,47 +5058,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-326000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-82000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-77000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-183000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-91000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-187000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>233000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-677000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-303000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4865,47 +5111,50 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>83000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-73000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-34000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>46000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>54000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4915,47 +5164,50 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-247000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>207000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-149000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-43000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-271000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>278000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>569000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-311000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-63000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>OGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1519000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1608000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1538000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1485000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1537000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1585000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1567000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1603000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1595000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1506000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1613000</v>
       </c>
       <c r="O8" s="3">
         <v>1613000</v>
       </c>
       <c r="P8" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1780000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E9" s="3">
         <v>640000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>580000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>594000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>551000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>579000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>561000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>592000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>609000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>583000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>591000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>535000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>460000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>538000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E10" s="3">
         <v>968000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>958000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>891000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>986000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1006000</v>
       </c>
       <c r="I10" s="3">
         <v>1006000</v>
       </c>
       <c r="J10" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1011000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>991000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1012000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>915000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-787000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1078000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1242000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E12" s="3">
         <v>128000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>129000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>142000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>127000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>106000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>96000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>114000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>111000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>76000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>67000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>214000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>54000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>51000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>45000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>106000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>87000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1000</v>
       </c>
       <c r="L14" s="3">
         <v>1000</v>
@@ -1064,25 +1084,28 @@
         <v>1000</v>
       </c>
       <c r="N14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1354000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1303000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1374000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1255000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1298000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1125000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1367000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1211000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1158000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1039000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1088000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>932000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>824000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>936000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E18" s="3">
         <v>254000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>235000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>111000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>282000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>287000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>442000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>236000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>389000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>437000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>467000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>525000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>681000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>702000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>844000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1326,67 +1360,73 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E21" s="3">
         <v>312000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>292000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>163000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>339000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>337000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>495000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>298000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>441000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>480000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>505000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>560000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>721000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>877000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E23" s="3">
         <v>254000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>235000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>111000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>282000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>287000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>442000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>236000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>389000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>437000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>467000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>525000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>681000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>702000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>844000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>58000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>94000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>149000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>121000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>116000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>110000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E26" s="3">
         <v>242000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>177000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>108000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>227000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>234000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>348000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>202000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>323000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>431000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>395000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>376000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>560000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>586000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>734000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E27" s="3">
         <v>242000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>177000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>108000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>227000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>234000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>348000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>202000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>323000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>431000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>395000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>376000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>560000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>586000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>734000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,8 +1828,8 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1786,31 +1847,34 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-4000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>80000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-13000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-31000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1962,67 +2032,73 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E33" s="3">
         <v>242000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>177000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>108000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>227000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>234000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>348000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>202000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>323000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>427000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>399000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>456000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>547000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>542000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>703000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E35" s="3">
         <v>242000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>177000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>108000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>227000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>234000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>348000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>202000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>323000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>427000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>399000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>456000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>547000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>542000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>703000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E41" s="3">
         <v>326000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>459000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>706000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>499000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>545000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>694000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>737000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1008000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>730000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>141000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1648000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1672000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1445000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1475000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1440000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1490000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1322000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1382000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1498000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1507000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1010000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,44 +2479,47 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1186000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1199000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1121000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1003000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>879000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>950000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>946000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>915000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>918000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>871000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>924000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E45" s="3">
         <v>761000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>755000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>747000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>774000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>789000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>757000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>726000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>905000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>803000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>902000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4050000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3958000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3780000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3931000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3592000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3774000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3719000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3760000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4329000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3911000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2977000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1110000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1055000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1233000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>906000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>952000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>970000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1203000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1255000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1269000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>986000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5164000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5195000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5224000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5252000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5273000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5241000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5268000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5254000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5286000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5314000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5085000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E52" s="3">
         <v>716000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>704000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>539000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>666000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>647000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>640000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>464000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>465000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>414000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>594000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11012000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10979000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10763000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10955000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10437000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10614000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10597000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10681000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11335000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10908000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9642000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1115000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>996000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1132000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1028000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1130000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1081000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1382000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1673000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1812000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>818000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3082,7 +3216,7 @@
         <v>8000</v>
       </c>
       <c r="H58" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="I58" s="3">
         <v>9000</v>
@@ -3091,17 +3225,17 @@
         <v>9000</v>
       </c>
       <c r="K58" s="3">
-        <v>39000</v>
+        <v>9000</v>
       </c>
       <c r="L58" s="3">
         <v>39000</v>
       </c>
       <c r="M58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="N58" s="3">
         <v>966000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1264000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1342000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1372000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1292000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1257000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1216000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1206000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1417000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1124000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1091000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2491000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2387000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2346000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2512000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2328000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2396000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2306000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2597000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3129000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2975000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2875000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,41 +3363,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8646000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8722000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8703000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8905000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8691000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8884000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9085000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9125000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9259000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9309000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E62" s="3">
         <v>425000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>451000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>430000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>484000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>471000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>456000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>467000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>565000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>558000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2045000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11601000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11534000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11500000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11847000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11503000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11751000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11847000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12189000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12953000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12842000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4920000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-206000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-331000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-383000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-551000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-724000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-998000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1128000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1473000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-589000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-555000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-737000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-892000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1066000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1137000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1250000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1508000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1618000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1934000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4722000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E81" s="3">
         <v>242000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>177000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>108000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>227000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>234000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>348000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>202000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>323000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>427000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>399000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>456000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>547000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>542000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>703000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,50 +4422,51 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E83" s="3">
         <v>58000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>57000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>62000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>136000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,50 +4756,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E89" s="3">
         <v>27000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>114000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>267000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>317000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>151000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>123000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>47000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>368000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>539000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1504000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>430000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>288000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,50 +4836,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-71000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-160000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-138000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-121000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,50 +5002,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-213000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-133000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-249000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-118000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,25 +5092,25 @@
         <v>-74000</v>
       </c>
       <c r="E96" s="3">
-        <v>-73000</v>
+        <v>-74000</v>
       </c>
       <c r="F96" s="3">
         <v>-73000</v>
       </c>
       <c r="G96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-74000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-72000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-71000</v>
       </c>
       <c r="J96" s="3">
         <v>-71000</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,50 +5304,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-88000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-326000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-82000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-77000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-183000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-91000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-187000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>233000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-677000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-303000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5114,50 +5360,53 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>83000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-73000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-34000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>46000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>54000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5167,50 +5416,53 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-133000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-247000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>207000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-149000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-43000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-271000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>278000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>569000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>91000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-311000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-63000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
